--- a/data/2016.xlsx
+++ b/data/2016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\map_challenge\data\정당회계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quarto\map_challenge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D43B3A0-67A3-4497-9F0B-B80C3E7D7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189C44F5-47B6-44AB-B754-66247AFE0F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{957713E0-8D03-4958-86C5-76D6A2E6E3A6}"/>
+    <workbookView xWindow="32235" yWindow="870" windowWidth="24225" windowHeight="14235" xr2:uid="{957713E0-8D03-4958-86C5-76D6A2E6E3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="page01" sheetId="1" r:id="rId1"/>
@@ -659,28 +659,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1F36E9-172E-4CD9-9FF3-674B6648C91E}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -727,7 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -774,7 +774,7 @@
         <v>5442</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -793,8 +793,8 @@
       <c r="F3" s="1">
         <v>7669</v>
       </c>
-      <c r="G3">
-        <v>1.1140000000000001</v>
+      <c r="G3" s="1">
+        <v>1114</v>
       </c>
       <c r="H3" s="1">
         <v>1100</v>
@@ -821,7 +821,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -850,7 +850,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -931,7 +931,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -980,7 +980,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -997,7 +997,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1115,8 +1115,8 @@
       <c r="C14" s="1">
         <v>81673</v>
       </c>
-      <c r="D14">
-        <v>157.464</v>
+      <c r="D14" s="1">
+        <v>157464</v>
       </c>
       <c r="E14" s="1">
         <v>4363</v>
@@ -1137,15 +1137,15 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>567.74300000000005</v>
-      </c>
-      <c r="C15">
-        <v>462.78500000000003</v>
+      <c r="B15" s="1">
+        <v>567743</v>
+      </c>
+      <c r="C15" s="1">
+        <v>462785</v>
       </c>
       <c r="D15" s="1">
         <v>64375</v>
@@ -1169,7 +1169,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1281,19 +1281,19 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="2"/>
+    <col min="8" max="8" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -1817,22 +1817,21 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>6126</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>17319</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -2024,22 +2023,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CF234F-7493-46D2-A8BC-5D4B223CA95C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="6" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>9196</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
